--- a/01. Document/Bao gia nang cap phan mem TRM v2 2 (vs2012 0424).xlsx
+++ b/01. Document/Bao gia nang cap phan mem TRM v2 2 (vs2012 0424).xlsx
@@ -30,6 +30,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -38,6 +39,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 d1, d2, d3 là 3 menu khác nhau và f702 thêm 3 interfaces</t>
@@ -311,6 +313,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -401,12 +404,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -554,6 +559,10 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -570,12 +579,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1008,11 +1013,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A6:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1025,11 +1030,11 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:7" ht="30.75" customHeight="1">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1">
       <c r="A7" s="5"/>
@@ -1040,28 +1045,28 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="28" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="23" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1074,10 +1079,10 @@
         <f>SUM(C12:C38)</f>
         <v>25410000</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A12" s="8" t="s">
@@ -1349,10 +1354,10 @@
         <v>78</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="G31" s="29" t="s">
+      <c r="G31" s="22" t="s">
         <v>79</v>
       </c>
     </row>

--- a/01. Document/Bao gia nang cap phan mem TRM v2 2 (vs2012 0424).xlsx
+++ b/01. Document/Bao gia nang cap phan mem TRM v2 2 (vs2012 0424).xlsx
@@ -1014,10 +1014,10 @@
   <dimension ref="A6:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="11" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1084,7 +1084,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A13" s="20" t="s">
         <v>32</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A14" s="20" t="s">
         <v>33</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A15" s="20" t="s">
         <v>34</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A16" s="20" t="s">
         <v>35</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="17" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A17" s="20" t="s">
         <v>36</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="18" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A18" s="20" t="s">
         <v>37</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="19" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A19" s="20" t="s">
         <v>38</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A20" s="20" t="s">
         <v>39</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="21" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A21" s="20" t="s">
         <v>40</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="22" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A22" s="20" t="s">
         <v>41</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="23" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A23" s="20" t="s">
         <v>53</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="30" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A30" s="8" t="s">
         <v>24</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="31" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
         <v>78</v>
@@ -1361,7 +1361,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="19.5" customHeight="1">
+    <row r="32" spans="1:7" ht="19.5" hidden="1" customHeight="1">
       <c r="A32" s="20" t="s">
         <v>57</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="19.5" customHeight="1">
+    <row r="33" spans="1:7" ht="19.5" hidden="1" customHeight="1">
       <c r="A33" s="20" t="s">
         <v>58</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="19.5" customHeight="1">
+    <row r="34" spans="1:7" ht="19.5" hidden="1" customHeight="1">
       <c r="A34" s="20" t="s">
         <v>59</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="19.5" customHeight="1">
+    <row r="35" spans="1:7" ht="19.5" hidden="1" customHeight="1">
       <c r="A35" s="19" t="s">
         <v>25</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="19.5" customHeight="1">
+    <row r="36" spans="1:7" ht="19.5" hidden="1" customHeight="1">
       <c r="A36" s="20" t="s">
         <v>60</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="19.5" customHeight="1">
+    <row r="37" spans="1:7" ht="19.5" hidden="1" customHeight="1">
       <c r="A37" s="20" t="s">
         <v>61</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="19.5" customHeight="1">
+    <row r="38" spans="1:7" ht="19.5" hidden="1" customHeight="1">
       <c r="A38" s="20" t="s">
         <v>62</v>
       </c>
@@ -1549,7 +1549,7 @@
   <autoFilter ref="A11:E39">
     <filterColumn colId="3">
       <filters>
-        <filter val="1"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/01. Document/Bao gia nang cap phan mem TRM v2 2 (vs2012 0424).xlsx
+++ b/01. Document/Bao gia nang cap phan mem TRM v2 2 (vs2012 0424).xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
   <si>
     <t>HẠNG MỤC</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>Site.Master</t>
+  </si>
+  <si>
+    <t>KhanhNH</t>
   </si>
 </sst>
 </file>
@@ -1013,11 +1016,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A6:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1084,7 +1087,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1096,7 +1099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A13" s="20" t="s">
         <v>32</v>
       </c>
@@ -1110,7 +1113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A14" s="20" t="s">
         <v>33</v>
       </c>
@@ -1124,7 +1127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A15" s="20" t="s">
         <v>34</v>
       </c>
@@ -1138,7 +1141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A16" s="20" t="s">
         <v>35</v>
       </c>
@@ -1152,7 +1155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="17" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A17" s="20" t="s">
         <v>36</v>
       </c>
@@ -1166,7 +1169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="18" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A18" s="20" t="s">
         <v>37</v>
       </c>
@@ -1180,7 +1183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="19" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A19" s="20" t="s">
         <v>38</v>
       </c>
@@ -1194,7 +1197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A20" s="20" t="s">
         <v>39</v>
       </c>
@@ -1208,7 +1211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="21" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A21" s="20" t="s">
         <v>40</v>
       </c>
@@ -1222,7 +1225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="22" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A22" s="20" t="s">
         <v>41</v>
       </c>
@@ -1236,7 +1239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="23" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A23" s="20" t="s">
         <v>53</v>
       </c>
@@ -1334,7 +1337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="30" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A30" s="8" t="s">
         <v>24</v>
       </c>
@@ -1348,12 +1351,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="31" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C31" s="10"/>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
       <c r="F31" s="22" t="s">
         <v>80</v>
       </c>
@@ -1361,7 +1367,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="19.5" hidden="1" customHeight="1">
+    <row r="32" spans="1:7" ht="19.5" customHeight="1">
       <c r="A32" s="20" t="s">
         <v>57</v>
       </c>
@@ -1384,7 +1390,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="19.5" hidden="1" customHeight="1">
+    <row r="33" spans="1:7" ht="19.5" customHeight="1">
       <c r="A33" s="20" t="s">
         <v>58</v>
       </c>
@@ -1407,7 +1413,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="19.5" hidden="1" customHeight="1">
+    <row r="34" spans="1:7" ht="19.5" customHeight="1">
       <c r="A34" s="20" t="s">
         <v>59</v>
       </c>
@@ -1426,8 +1432,11 @@
       <c r="F34" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="19.5" hidden="1" customHeight="1">
+      <c r="G34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="19.5" customHeight="1">
       <c r="A35" s="19" t="s">
         <v>25</v>
       </c>
@@ -1441,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="19.5" hidden="1" customHeight="1">
+    <row r="36" spans="1:7" ht="19.5" customHeight="1">
       <c r="A36" s="20" t="s">
         <v>60</v>
       </c>
@@ -1458,7 +1467,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="19.5" hidden="1" customHeight="1">
+    <row r="37" spans="1:7" ht="19.5" customHeight="1">
       <c r="A37" s="20" t="s">
         <v>61</v>
       </c>
@@ -1472,7 +1481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="19.5" hidden="1" customHeight="1">
+    <row r="38" spans="1:7" ht="19.5" customHeight="1">
       <c r="A38" s="20" t="s">
         <v>62</v>
       </c>
@@ -1549,7 +1558,7 @@
   <autoFilter ref="A11:E39">
     <filterColumn colId="3">
       <filters>
-        <filter val="2"/>
+        <filter val="1"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/01. Document/Bao gia nang cap phan mem TRM v2 2 (vs2012 0424).xlsx
+++ b/01. Document/Bao gia nang cap phan mem TRM v2 2 (vs2012 0424).xlsx
@@ -1013,14 +1013,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A6:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1087,7 +1086,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1099,7 +1098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A13" s="20" t="s">
         <v>32</v>
       </c>
@@ -1113,7 +1112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A14" s="20" t="s">
         <v>33</v>
       </c>
@@ -1127,7 +1126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A15" s="20" t="s">
         <v>34</v>
       </c>
@@ -1141,7 +1140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A16" s="20" t="s">
         <v>35</v>
       </c>
@@ -1155,7 +1154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="17" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A17" s="20" t="s">
         <v>36</v>
       </c>
@@ -1169,7 +1168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="18" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A18" s="20" t="s">
         <v>37</v>
       </c>
@@ -1183,7 +1182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="19" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A19" s="20" t="s">
         <v>38</v>
       </c>
@@ -1197,7 +1196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A20" s="20" t="s">
         <v>39</v>
       </c>
@@ -1211,7 +1210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="21" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A21" s="20" t="s">
         <v>40</v>
       </c>
@@ -1225,7 +1224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="22" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A22" s="20" t="s">
         <v>41</v>
       </c>
@@ -1239,7 +1238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="23" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A23" s="20" t="s">
         <v>53</v>
       </c>
@@ -1253,7 +1252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="24" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A24" s="19" t="s">
         <v>20</v>
       </c>
@@ -1267,7 +1266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="25" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A25" s="20" t="s">
         <v>47</v>
       </c>
@@ -1281,7 +1280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="26" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A26" s="20" t="s">
         <v>48</v>
       </c>
@@ -1295,7 +1294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="27" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A27" s="20" t="s">
         <v>49</v>
       </c>
@@ -1309,7 +1308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="28" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A28" s="20" t="s">
         <v>50</v>
       </c>
@@ -1323,7 +1322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="29" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A29" s="20" t="s">
         <v>51</v>
       </c>
@@ -1499,7 +1498,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" hidden="1">
+    <row r="39" spans="1:7" ht="15">
       <c r="A39" s="5" t="s">
         <v>3</v>
       </c>
@@ -1556,11 +1555,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A11:E39">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="3"/>
   </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="F10:F11"/>

--- a/01. Document/Bao gia nang cap phan mem TRM v2 2 (vs2012 0424).xlsx
+++ b/01. Document/Bao gia nang cap phan mem TRM v2 2 (vs2012 0424).xlsx
@@ -1013,13 +1013,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A6:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1086,7 +1087,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1098,7 +1099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A13" s="20" t="s">
         <v>32</v>
       </c>
@@ -1112,7 +1113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A14" s="20" t="s">
         <v>33</v>
       </c>
@@ -1126,7 +1127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A15" s="20" t="s">
         <v>34</v>
       </c>
@@ -1140,7 +1141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A16" s="20" t="s">
         <v>35</v>
       </c>
@@ -1154,7 +1155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="17" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A17" s="20" t="s">
         <v>36</v>
       </c>
@@ -1168,7 +1169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="18" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A18" s="20" t="s">
         <v>37</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="19" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A19" s="20" t="s">
         <v>38</v>
       </c>
@@ -1196,7 +1197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A20" s="20" t="s">
         <v>39</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="21" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A21" s="20" t="s">
         <v>40</v>
       </c>
@@ -1224,7 +1225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="22" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A22" s="20" t="s">
         <v>41</v>
       </c>
@@ -1238,7 +1239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="23" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A23" s="20" t="s">
         <v>53</v>
       </c>
@@ -1252,7 +1253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="24" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A24" s="19" t="s">
         <v>20</v>
       </c>
@@ -1266,7 +1267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="25" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A25" s="20" t="s">
         <v>47</v>
       </c>
@@ -1280,7 +1281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="26" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A26" s="20" t="s">
         <v>48</v>
       </c>
@@ -1294,7 +1295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="27" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A27" s="20" t="s">
         <v>49</v>
       </c>
@@ -1308,7 +1309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="28" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A28" s="20" t="s">
         <v>50</v>
       </c>
@@ -1322,7 +1323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="29" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A29" s="20" t="s">
         <v>51</v>
       </c>
@@ -1498,7 +1499,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15">
+    <row r="39" spans="1:7" ht="15" hidden="1">
       <c r="A39" s="5" t="s">
         <v>3</v>
       </c>
@@ -1555,7 +1556,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A11:E39">
-    <filterColumn colId="3"/>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="F10:F11"/>

--- a/01. Document/Bao gia nang cap phan mem TRM v2 2 (vs2012 0424).xlsx
+++ b/01. Document/Bao gia nang cap phan mem TRM v2 2 (vs2012 0424).xlsx
@@ -1016,11 +1016,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A6:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1087,7 +1084,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1099,7 +1096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A13" s="20" t="s">
         <v>32</v>
       </c>
@@ -1113,7 +1110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A14" s="20" t="s">
         <v>33</v>
       </c>
@@ -1127,7 +1124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A15" s="20" t="s">
         <v>34</v>
       </c>
@@ -1141,7 +1138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A16" s="20" t="s">
         <v>35</v>
       </c>
@@ -1155,7 +1152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="17" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A17" s="20" t="s">
         <v>36</v>
       </c>
@@ -1169,7 +1166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="18" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A18" s="20" t="s">
         <v>37</v>
       </c>
@@ -1183,7 +1180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="19" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A19" s="20" t="s">
         <v>38</v>
       </c>
@@ -1197,7 +1194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A20" s="20" t="s">
         <v>39</v>
       </c>
@@ -1211,7 +1208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="21" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A21" s="20" t="s">
         <v>40</v>
       </c>
@@ -1225,7 +1222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="22" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A22" s="20" t="s">
         <v>41</v>
       </c>
@@ -1239,7 +1236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="23" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A23" s="20" t="s">
         <v>53</v>
       </c>
@@ -1253,7 +1250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="24" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A24" s="19" t="s">
         <v>20</v>
       </c>
@@ -1267,7 +1264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="25" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A25" s="20" t="s">
         <v>47</v>
       </c>
@@ -1281,7 +1278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="26" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A26" s="20" t="s">
         <v>48</v>
       </c>
@@ -1295,7 +1292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="27" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A27" s="20" t="s">
         <v>49</v>
       </c>
@@ -1309,7 +1306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="28" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A28" s="20" t="s">
         <v>50</v>
       </c>
@@ -1323,7 +1320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="29" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A29" s="20" t="s">
         <v>51</v>
       </c>
@@ -1337,7 +1334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="30" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A30" s="8" t="s">
         <v>24</v>
       </c>
@@ -1351,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="31" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
         <v>78</v>
@@ -1367,7 +1364,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="19.5" customHeight="1">
+    <row r="32" spans="1:7" ht="19.5" hidden="1" customHeight="1">
       <c r="A32" s="20" t="s">
         <v>57</v>
       </c>
@@ -1390,7 +1387,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="19.5" customHeight="1">
+    <row r="33" spans="1:7" ht="19.5" hidden="1" customHeight="1">
       <c r="A33" s="20" t="s">
         <v>58</v>
       </c>
@@ -1413,7 +1410,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="19.5" customHeight="1">
+    <row r="34" spans="1:7" ht="19.5" hidden="1" customHeight="1">
       <c r="A34" s="20" t="s">
         <v>59</v>
       </c>
@@ -1436,7 +1433,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="19.5" customHeight="1">
+    <row r="35" spans="1:7" ht="19.5" hidden="1" customHeight="1">
       <c r="A35" s="19" t="s">
         <v>25</v>
       </c>
@@ -1450,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="19.5" customHeight="1">
+    <row r="36" spans="1:7" ht="19.5" hidden="1" customHeight="1">
       <c r="A36" s="20" t="s">
         <v>60</v>
       </c>
@@ -1467,7 +1464,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="19.5" customHeight="1">
+    <row r="37" spans="1:7" ht="19.5" hidden="1" customHeight="1">
       <c r="A37" s="20" t="s">
         <v>61</v>
       </c>
@@ -1481,7 +1478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="19.5" customHeight="1">
+    <row r="38" spans="1:7" ht="19.5" hidden="1" customHeight="1">
       <c r="A38" s="20" t="s">
         <v>62</v>
       </c>
@@ -1558,7 +1555,8 @@
   <autoFilter ref="A11:E39">
     <filterColumn colId="3">
       <filters>
-        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/01. Document/Bao gia nang cap phan mem TRM v2 2 (vs2012 0424).xlsx
+++ b/01. Document/Bao gia nang cap phan mem TRM v2 2 (vs2012 0424).xlsx
@@ -1016,8 +1016,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A6:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1250,7 +1250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="24" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A24" s="19" t="s">
         <v>20</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="25" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A25" s="20" t="s">
         <v>47</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="26" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A26" s="20" t="s">
         <v>48</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="27" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A27" s="20" t="s">
         <v>49</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="28" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A28" s="20" t="s">
         <v>50</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="29" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A29" s="20" t="s">
         <v>51</v>
       </c>
@@ -1556,7 +1556,6 @@
     <filterColumn colId="3">
       <filters>
         <filter val="2"/>
-        <filter val="3"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/01. Document/Bao gia nang cap phan mem TRM v2 2 (vs2012 0424).xlsx
+++ b/01. Document/Bao gia nang cap phan mem TRM v2 2 (vs2012 0424).xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
   <si>
     <t>HẠNG MỤC</t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t>KhanhNH</t>
+  </si>
+  <si>
+    <t>Bao cao cong viec giang vien theo thang</t>
+  </si>
+  <si>
+    <t>Bao cao tong hop cong viec giang vien theo dau muc</t>
   </si>
 </sst>
 </file>
@@ -1014,10 +1020,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A6:G47"/>
+  <dimension ref="A6:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1084,7 +1090,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1096,7 +1102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A13" s="20" t="s">
         <v>32</v>
       </c>
@@ -1110,7 +1116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A14" s="20" t="s">
         <v>33</v>
       </c>
@@ -1124,7 +1130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A15" s="20" t="s">
         <v>34</v>
       </c>
@@ -1138,7 +1144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A16" s="20" t="s">
         <v>35</v>
       </c>
@@ -1152,7 +1158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="17" spans="1:9" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A17" s="20" t="s">
         <v>36</v>
       </c>
@@ -1166,7 +1172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="18" spans="1:9" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A18" s="20" t="s">
         <v>37</v>
       </c>
@@ -1180,7 +1186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="19" spans="1:9" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A19" s="20" t="s">
         <v>38</v>
       </c>
@@ -1194,7 +1200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="20" spans="1:9" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A20" s="20" t="s">
         <v>39</v>
       </c>
@@ -1208,7 +1214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="21" spans="1:9" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A21" s="20" t="s">
         <v>40</v>
       </c>
@@ -1222,7 +1228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="22" spans="1:9" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A22" s="20" t="s">
         <v>41</v>
       </c>
@@ -1236,7 +1242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
+    <row r="23" spans="1:9" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A23" s="20" t="s">
         <v>53</v>
       </c>
@@ -1250,7 +1256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="24" spans="1:9" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A24" s="19" t="s">
         <v>20</v>
       </c>
@@ -1263,8 +1269,11 @@
       <c r="D24" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+      <c r="I24" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A25" s="20" t="s">
         <v>47</v>
       </c>
@@ -1277,8 +1286,11 @@
       <c r="D25" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+      <c r="I25" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A26" s="20" t="s">
         <v>48</v>
       </c>
@@ -1292,7 +1304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="27" spans="1:9" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A27" s="20" t="s">
         <v>49</v>
       </c>
@@ -1306,7 +1318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A28" s="20" t="s">
         <v>50</v>
       </c>
@@ -1320,7 +1332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="29" spans="1:9" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
       <c r="A29" s="20" t="s">
         <v>51</v>
       </c>
@@ -1334,7 +1346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="30" spans="1:9" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A30" s="8" t="s">
         <v>24</v>
       </c>
@@ -1348,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="31" spans="1:9" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
         <v>78</v>
@@ -1364,7 +1376,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="19.5" hidden="1" customHeight="1">
+    <row r="32" spans="1:9" ht="19.5" customHeight="1">
       <c r="A32" s="20" t="s">
         <v>57</v>
       </c>
@@ -1387,7 +1399,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="19.5" hidden="1" customHeight="1">
+    <row r="33" spans="1:7" ht="19.5" customHeight="1">
       <c r="A33" s="20" t="s">
         <v>58</v>
       </c>
@@ -1410,7 +1422,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="19.5" hidden="1" customHeight="1">
+    <row r="34" spans="1:7" ht="19.5" customHeight="1">
       <c r="A34" s="20" t="s">
         <v>59</v>
       </c>
@@ -1433,7 +1445,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="19.5" hidden="1" customHeight="1">
+    <row r="35" spans="1:7" ht="19.5" customHeight="1">
       <c r="A35" s="19" t="s">
         <v>25</v>
       </c>
@@ -1447,7 +1459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="19.5" hidden="1" customHeight="1">
+    <row r="36" spans="1:7" ht="19.5" customHeight="1">
       <c r="A36" s="20" t="s">
         <v>60</v>
       </c>
@@ -1464,7 +1476,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="19.5" hidden="1" customHeight="1">
+    <row r="37" spans="1:7" ht="19.5" customHeight="1">
       <c r="A37" s="20" t="s">
         <v>61</v>
       </c>
@@ -1478,7 +1490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="19.5" hidden="1" customHeight="1">
+    <row r="38" spans="1:7" ht="19.5" customHeight="1">
       <c r="A38" s="20" t="s">
         <v>62</v>
       </c>
@@ -1555,7 +1567,7 @@
   <autoFilter ref="A11:E39">
     <filterColumn colId="3">
       <filters>
-        <filter val="2"/>
+        <filter val="1"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/01. Document/Bao gia nang cap phan mem TRM v2 2 (vs2012 0424).xlsx
+++ b/01. Document/Bao gia nang cap phan mem TRM v2 2 (vs2012 0424).xlsx
@@ -1022,8 +1022,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A6:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/01. Document/Bao gia nang cap phan mem TRM v2 2 (vs2012 0424).xlsx
+++ b/01. Document/Bao gia nang cap phan mem TRM v2 2 (vs2012 0424).xlsx
@@ -1019,11 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A6:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1090,7 +1089,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1102,7 +1101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A13" s="20" t="s">
         <v>32</v>
       </c>
@@ -1116,7 +1115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A14" s="20" t="s">
         <v>33</v>
       </c>
@@ -1130,7 +1129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A15" s="20" t="s">
         <v>34</v>
       </c>
@@ -1144,7 +1143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A16" s="20" t="s">
         <v>35</v>
       </c>
@@ -1158,7 +1157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="17" spans="1:9" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A17" s="20" t="s">
         <v>36</v>
       </c>
@@ -1172,7 +1171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="18" spans="1:9" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A18" s="20" t="s">
         <v>37</v>
       </c>
@@ -1186,7 +1185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="19" spans="1:9" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A19" s="20" t="s">
         <v>38</v>
       </c>
@@ -1200,7 +1199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="20" spans="1:9" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A20" s="20" t="s">
         <v>39</v>
       </c>
@@ -1214,7 +1213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="21" spans="1:9" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A21" s="20" t="s">
         <v>40</v>
       </c>
@@ -1228,7 +1227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="22" spans="1:9" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A22" s="20" t="s">
         <v>41</v>
       </c>
@@ -1242,7 +1241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="23" spans="1:9" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A23" s="20" t="s">
         <v>53</v>
       </c>
@@ -1256,7 +1255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="24" spans="1:9" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A24" s="19" t="s">
         <v>20</v>
       </c>
@@ -1273,7 +1272,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="25" spans="1:9" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A25" s="20" t="s">
         <v>47</v>
       </c>
@@ -1290,7 +1289,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="26" spans="1:9" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A26" s="20" t="s">
         <v>48</v>
       </c>
@@ -1304,7 +1303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="27" spans="1:9" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A27" s="20" t="s">
         <v>49</v>
       </c>
@@ -1318,7 +1317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A28" s="20" t="s">
         <v>50</v>
       </c>
@@ -1332,7 +1331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="29" spans="1:9" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A29" s="20" t="s">
         <v>51</v>
       </c>
@@ -1508,7 +1507,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" hidden="1">
+    <row r="39" spans="1:7" ht="15">
       <c r="A39" s="5" t="s">
         <v>3</v>
       </c>
@@ -1565,11 +1564,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A11:E39">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="3"/>
   </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="F10:F11"/>

--- a/01. Document/Bao gia nang cap phan mem TRM v2 2 (vs2012 0424).xlsx
+++ b/01. Document/Bao gia nang cap phan mem TRM v2 2 (vs2012 0424).xlsx
@@ -1021,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A6:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1285,6 +1285,8 @@
       <c r="D25" s="7">
         <v>3</v>
       </c>
+      <c r="E25"/>
+      <c r="F25"/>
       <c r="I25" s="7" t="s">
         <v>83</v>
       </c>
@@ -1302,6 +1304,8 @@
       <c r="D26" s="7">
         <v>3</v>
       </c>
+      <c r="E26"/>
+      <c r="F26"/>
     </row>
     <row r="27" spans="1:9" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A27" s="20" t="s">
@@ -1316,6 +1320,8 @@
       <c r="D27" s="7">
         <v>3</v>
       </c>
+      <c r="E27"/>
+      <c r="F27"/>
     </row>
     <row r="28" spans="1:9" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A28" s="20" t="s">
@@ -1330,6 +1336,8 @@
       <c r="D28" s="7">
         <v>3</v>
       </c>
+      <c r="E28"/>
+      <c r="F28"/>
     </row>
     <row r="29" spans="1:9" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -1344,6 +1352,8 @@
       <c r="D29" s="7">
         <v>3</v>
       </c>
+      <c r="E29"/>
+      <c r="F29"/>
     </row>
     <row r="30" spans="1:9" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A30" s="8" t="s">

--- a/01. Document/Bao gia nang cap phan mem TRM v2 2 (vs2012 0424).xlsx
+++ b/01. Document/Bao gia nang cap phan mem TRM v2 2 (vs2012 0424).xlsx
@@ -1022,7 +1022,7 @@
   <dimension ref="A6:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/01. Document/Bao gia nang cap phan mem TRM v2 2 (vs2012 0424).xlsx
+++ b/01. Document/Bao gia nang cap phan mem TRM v2 2 (vs2012 0424).xlsx
@@ -1021,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A6:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
